--- a/rules.xlsx
+++ b/rules.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="20190" windowHeight="10530"/>
+    <workbookView xWindow="33120" yWindow="0" windowWidth="20190" windowHeight="10530"/>
   </bookViews>
   <sheets>
     <sheet name="rules" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
   <si>
     <t>category</t>
   </si>
@@ -136,14 +136,119 @@
     <t>distthresh</t>
   </si>
   <si>
-    <t>mines</t>
+    <t>mgdplan</t>
+  </si>
+  <si>
+    <t>intwet</t>
+  </si>
+  <si>
+    <t>intupl</t>
+  </si>
+  <si>
+    <t>agpastr</t>
+  </si>
+  <si>
+    <t>agcrops</t>
+  </si>
+  <si>
+    <t>minequar</t>
+  </si>
+  <si>
+    <t>vegdist</t>
+  </si>
+  <si>
+    <t>name_full</t>
+  </si>
+  <si>
+    <t>Railroads</t>
+  </si>
+  <si>
+    <t>Secondary roads</t>
+  </si>
+  <si>
+    <t>Local roads</t>
+  </si>
+  <si>
+    <t>Vehicular paths/trails</t>
+  </si>
+  <si>
+    <t>Agriculture - all types</t>
+  </si>
+  <si>
+    <t>Agriculture - pasture</t>
+  </si>
+  <si>
+    <t>Agriculture - cropland</t>
+  </si>
+  <si>
+    <t>Introduced vegetation - upland</t>
+  </si>
+  <si>
+    <t>Introduced vegetation - wetlands</t>
+  </si>
+  <si>
+    <t>Managed tree plantations</t>
+  </si>
+  <si>
+    <t>Developed - high intensity</t>
+  </si>
+  <si>
+    <t>Developed - medium intensity</t>
+  </si>
+  <si>
+    <t>Developed - low intensity</t>
+  </si>
+  <si>
+    <t>Developed - open space</t>
+  </si>
+  <si>
+    <t>Open mines/quarries</t>
+  </si>
+  <si>
+    <t>Oil and gas wells</t>
+  </si>
+  <si>
+    <t>Electric power transmission lines</t>
+  </si>
+  <si>
+    <t>cite</t>
+  </si>
+  <si>
+    <t>[@btsRail]</t>
+  </si>
+  <si>
+    <t>[@tiger]</t>
+  </si>
+  <si>
+    <t>[@nlcd]</t>
+  </si>
+  <si>
+    <t>[@vdist]</t>
+  </si>
+  <si>
+    <t>[@evt]</t>
+  </si>
+  <si>
+    <t>[@ornlElec]</t>
+  </si>
+  <si>
+    <t>[@oilgasKY][@oilgasWV][@oilgasVA]</t>
+  </si>
+  <si>
+    <t>Limited-access highways</t>
+  </si>
+  <si>
+    <t>Vegetation disturbance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,8 +383,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +567,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -576,7 +692,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -619,11 +735,18 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="48">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -653,19 +776,25 @@
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Good 2" xfId="47"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="hsip" xfId="45"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 2" xfId="43"/>
+    <cellStyle name="Normal 2 3 2" xfId="42"/>
+    <cellStyle name="Normal 3" xfId="44"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Warning Text 2" xfId="46"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -943,19 +1072,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -986,8 +1118,14 @@
       <c r="J1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1010,7 +1148,7 @@
         <v>100</v>
       </c>
       <c r="H2" t="str">
-        <f>CONCATENATE(A2,"_",B2)</f>
+        <f t="shared" ref="H2:H22" si="0">CONCATENATE(A2,"_",B2)</f>
         <v>transport_rail</v>
       </c>
       <c r="I2">
@@ -1019,8 +1157,14 @@
       <c r="J2">
         <v>420</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1043,7 +1187,7 @@
         <v>2000</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H16" si="0">CONCATENATE(A3,"_",B3)</f>
+        <f t="shared" si="0"/>
         <v>transport_rdlah</v>
       </c>
       <c r="I3">
@@ -1052,8 +1196,14 @@
       <c r="J3">
         <v>4500</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1085,8 +1235,14 @@
       <c r="J4">
         <v>420</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1118,8 +1274,14 @@
       <c r="J5">
         <v>3000</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1151,8 +1313,14 @@
       <c r="J6">
         <v>3800</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1184,211 +1352,163 @@
       <c r="J7">
         <v>2500</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8">
-        <v>2.5</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>600</v>
-      </c>
-      <c r="G8">
-        <v>600</v>
+        <v>38</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>development_aml</v>
+        <v>landcover_mgdplan</v>
       </c>
       <c r="I8">
-        <v>0.05</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="J8">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1200</v>
+      </c>
+      <c r="K8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>0.5</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>500</v>
-      </c>
-      <c r="G9">
-        <v>2000</v>
+        <v>39</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>development_devhi</v>
+        <v>landcover_intwet</v>
       </c>
       <c r="I9">
-        <v>5.8000000000000003E-2</v>
+        <v>0.626</v>
       </c>
       <c r="J9">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2500</v>
+      </c>
+      <c r="K9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>2.5</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10">
-        <v>400</v>
-      </c>
-      <c r="G10">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>development_devmed</v>
+        <v>landcover_intupl</v>
       </c>
       <c r="I10">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J10">
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2300</v>
+      </c>
+      <c r="K10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>2.5</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11">
-        <v>300</v>
-      </c>
-      <c r="G11">
-        <v>300</v>
+        <v>44</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>development_devlow</v>
+        <v>landcover_vegdist</v>
       </c>
       <c r="I11">
-        <v>0.31</v>
+        <v>0.9</v>
       </c>
       <c r="J11">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+      <c r="K11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12">
-        <v>300</v>
-      </c>
-      <c r="G12">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>development_devopen</v>
+        <v>landcover_agpastr</v>
       </c>
       <c r="I12">
-        <v>0.308</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="J12">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1950</v>
+      </c>
+      <c r="K12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>0.5</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>100</v>
-      </c>
-      <c r="F13">
-        <v>300</v>
-      </c>
-      <c r="G13">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>development_energy</v>
+        <v>landcover_agcrops</v>
       </c>
       <c r="I13">
-        <v>0.16800000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="J13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2500</v>
+      </c>
+      <c r="K13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>2.5</v>
@@ -1400,76 +1520,316 @@
         <v>100</v>
       </c>
       <c r="F14">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G14">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>development_oilgas</v>
+        <v>development_aml</v>
       </c>
       <c r="I14">
-        <v>0.16800000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="J14">
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="E15">
         <v>100</v>
       </c>
       <c r="F15">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G15">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
-        <v>development_elec</v>
+        <v>development_devhi</v>
       </c>
       <c r="I15">
-        <v>0.16800000000000001</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="J15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3450</v>
+      </c>
+      <c r="K15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>2.5</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>400</v>
+      </c>
+      <c r="G16">
+        <v>300</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>development_mines</v>
+        <v>development_devmed</v>
       </c>
       <c r="I16">
+        <v>0.25</v>
+      </c>
+      <c r="J16">
+        <v>2450</v>
+      </c>
+      <c r="K16" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2.5</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>300</v>
+      </c>
+      <c r="G17">
+        <v>300</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>development_devlow</v>
+      </c>
+      <c r="I17">
+        <v>0.31</v>
+      </c>
+      <c r="J17">
+        <v>2400</v>
+      </c>
+      <c r="K17" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>300</v>
+      </c>
+      <c r="G18">
+        <v>200</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>development_devopen</v>
+      </c>
+      <c r="I18">
+        <v>0.308</v>
+      </c>
+      <c r="J18">
+        <v>900</v>
+      </c>
+      <c r="K18" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>0.5</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>300</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>development_energy</v>
+      </c>
+      <c r="I19">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="J19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>2.5</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>300</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>development_oilgas</v>
+      </c>
+      <c r="I20">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="J20">
+        <v>500</v>
+      </c>
+      <c r="K20" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>300</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>development_elec</v>
+      </c>
+      <c r="I21">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="J21">
+        <v>100</v>
+      </c>
+      <c r="K21" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>development_minequar</v>
+      </c>
+      <c r="I22">
         <v>0.05</v>
       </c>
-      <c r="J16">
+      <c r="J22">
         <v>500</v>
       </c>
+      <c r="K22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L22" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I14">
-    <sortCondition descending="1" ref="A2"/>
+  <sortState ref="A2:J22">
+    <sortCondition descending="1" ref="A7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
